--- a/data/pca/factorExposure/factorExposure_2017-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02365852607001118</v>
+        <v>-0.01070193595804941</v>
       </c>
       <c r="C2">
-        <v>-0.002710040358859123</v>
+        <v>0.04518065555332731</v>
       </c>
       <c r="D2">
-        <v>0.03314782974347989</v>
+        <v>-0.02974974492575942</v>
       </c>
       <c r="E2">
-        <v>-0.005484494620471811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03303897985852233</v>
+      </c>
+      <c r="F2">
+        <v>0.01015851195125387</v>
+      </c>
+      <c r="G2">
+        <v>-0.09479262406793146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01780794005922851</v>
+        <v>-0.04384150341269753</v>
       </c>
       <c r="C3">
-        <v>0.04277800941838091</v>
+        <v>0.09987916916067836</v>
       </c>
       <c r="D3">
-        <v>0.09809703003094457</v>
+        <v>-0.01729762977472866</v>
       </c>
       <c r="E3">
-        <v>-0.03183203802824777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09678768687849262</v>
+      </c>
+      <c r="F3">
+        <v>0.005893873925363666</v>
+      </c>
+      <c r="G3">
+        <v>-0.1858915409345824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02525783574151539</v>
+        <v>-0.05570924201228376</v>
       </c>
       <c r="C4">
-        <v>0.01330307538470121</v>
+        <v>0.06820708538612416</v>
       </c>
       <c r="D4">
-        <v>0.08900712134617257</v>
+        <v>-0.02447942620434775</v>
       </c>
       <c r="E4">
-        <v>0.01754375466426352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02699823796243239</v>
+      </c>
+      <c r="F4">
+        <v>0.01275779789474107</v>
+      </c>
+      <c r="G4">
+        <v>-0.09570005131715842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01420569501035122</v>
+        <v>-0.03699265460790769</v>
       </c>
       <c r="C6">
-        <v>-0.005025524498980988</v>
+        <v>0.05327177482008481</v>
       </c>
       <c r="D6">
-        <v>0.08234752170639789</v>
+        <v>-0.01689190981808765</v>
       </c>
       <c r="E6">
-        <v>0.01075968441765238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.031296250431544</v>
+      </c>
+      <c r="F6">
+        <v>0.01157522722126143</v>
+      </c>
+      <c r="G6">
+        <v>-0.07604128968486513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01163655340467359</v>
+        <v>-0.02056747368854333</v>
       </c>
       <c r="C7">
-        <v>0.005360102450594349</v>
+        <v>0.04204070195633197</v>
       </c>
       <c r="D7">
-        <v>0.04426608318350322</v>
+        <v>-0.01345861433632081</v>
       </c>
       <c r="E7">
-        <v>0.05509517707565365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.003905473661042571</v>
+      </c>
+      <c r="F7">
+        <v>-0.003748321317991786</v>
+      </c>
+      <c r="G7">
+        <v>-0.1280407753238531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0004739569835719896</v>
+        <v>-0.003513325254970861</v>
       </c>
       <c r="C8">
-        <v>-0.001083502709569237</v>
+        <v>0.0247949500760992</v>
       </c>
       <c r="D8">
-        <v>0.003526163941523934</v>
+        <v>-0.003917486526387982</v>
       </c>
       <c r="E8">
-        <v>0.00737471375147309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02279043564263648</v>
+      </c>
+      <c r="F8">
+        <v>0.007929144564988368</v>
+      </c>
+      <c r="G8">
+        <v>-0.06565190768725523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01709697298105312</v>
+        <v>-0.03309908610552268</v>
       </c>
       <c r="C9">
-        <v>0.01359576695133501</v>
+        <v>0.04916919405975899</v>
       </c>
       <c r="D9">
-        <v>0.06298096321276543</v>
+        <v>-0.01666720854998611</v>
       </c>
       <c r="E9">
-        <v>0.007266910809494464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01694087569459725</v>
+      </c>
+      <c r="F9">
+        <v>0.01064182157213899</v>
+      </c>
+      <c r="G9">
+        <v>-0.09510133588358477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02688870708006258</v>
+        <v>-0.09874715524549749</v>
       </c>
       <c r="C10">
-        <v>0.1724628665187068</v>
+        <v>-0.1814489621833407</v>
       </c>
       <c r="D10">
-        <v>-0.1049259116088979</v>
+        <v>0.01481412469343765</v>
       </c>
       <c r="E10">
-        <v>-0.0207543596999673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02010228061715118</v>
+      </c>
+      <c r="F10">
+        <v>-0.02145278112176995</v>
+      </c>
+      <c r="G10">
+        <v>-0.06043715913961935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001166972268585998</v>
+        <v>-0.03492162257800771</v>
       </c>
       <c r="C11">
-        <v>0.003580637123963682</v>
+        <v>0.05507934320284388</v>
       </c>
       <c r="D11">
-        <v>0.05774231396224744</v>
+        <v>-0.002287236510161471</v>
       </c>
       <c r="E11">
-        <v>0.002225811714711531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009968364507669683</v>
+      </c>
+      <c r="F11">
+        <v>0.02132809687266852</v>
+      </c>
+      <c r="G11">
+        <v>-0.08416820120096014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005863399746126124</v>
+        <v>-0.03659411406265827</v>
       </c>
       <c r="C12">
-        <v>0.003900332503001303</v>
+        <v>0.04938299369960816</v>
       </c>
       <c r="D12">
-        <v>0.05263940008013316</v>
+        <v>-0.006197568583687696</v>
       </c>
       <c r="E12">
-        <v>0.01404876357476046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002688562478729064</v>
+      </c>
+      <c r="F12">
+        <v>0.001598406026480135</v>
+      </c>
+      <c r="G12">
+        <v>-0.07894720794965907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02479380711276778</v>
+        <v>-0.0157272797998836</v>
       </c>
       <c r="C13">
-        <v>0.01830498783812266</v>
+        <v>0.0406092102964715</v>
       </c>
       <c r="D13">
-        <v>0.03558930823448704</v>
+        <v>-0.02623500067402897</v>
       </c>
       <c r="E13">
-        <v>-0.009386570135443648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03044319470386861</v>
+      </c>
+      <c r="F13">
+        <v>0.008181677994051985</v>
+      </c>
+      <c r="G13">
+        <v>-0.1188264581722684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0091460696034422</v>
+        <v>-0.008729260911280191</v>
       </c>
       <c r="C14">
-        <v>0.01307257215824468</v>
+        <v>0.0294468387635819</v>
       </c>
       <c r="D14">
-        <v>0.02029521721677138</v>
+        <v>-0.009889497381901056</v>
       </c>
       <c r="E14">
-        <v>0.004299894624083997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002463457444296659</v>
+      </c>
+      <c r="F14">
+        <v>-0.008407362428063852</v>
+      </c>
+      <c r="G14">
+        <v>-0.09838521977431956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001791777556239748</v>
+        <v>-0.03332345500691337</v>
       </c>
       <c r="C16">
-        <v>0.008412863316066842</v>
+        <v>0.04852912210068827</v>
       </c>
       <c r="D16">
-        <v>0.05100328816710271</v>
+        <v>-0.001879939348317857</v>
       </c>
       <c r="E16">
-        <v>0.01172251754519282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009443777304882231</v>
+      </c>
+      <c r="F16">
+        <v>0.002713959549892354</v>
+      </c>
+      <c r="G16">
+        <v>-0.08701920372302707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01598614310627867</v>
+        <v>-0.02188489754377679</v>
       </c>
       <c r="C19">
-        <v>0.01871856235457704</v>
+        <v>0.05408471031066945</v>
       </c>
       <c r="D19">
-        <v>0.04863080443028366</v>
+        <v>-0.01892282000213866</v>
       </c>
       <c r="E19">
-        <v>0.01099500179859701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06871787087756748</v>
+      </c>
+      <c r="F19">
+        <v>0.02433507257820832</v>
+      </c>
+      <c r="G19">
+        <v>-0.1318090794211444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01155248516273357</v>
+        <v>-0.01499474867252337</v>
       </c>
       <c r="C20">
-        <v>0.006581062104258175</v>
+        <v>0.04003062246578822</v>
       </c>
       <c r="D20">
-        <v>0.0352157284187329</v>
+        <v>-0.01407814653550657</v>
       </c>
       <c r="E20">
-        <v>-0.01437094678282394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02944104658543634</v>
+      </c>
+      <c r="F20">
+        <v>-0.01018265333408405</v>
+      </c>
+      <c r="G20">
+        <v>-0.1058049829596185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0158279138234281</v>
+        <v>-0.01248897941368621</v>
       </c>
       <c r="C21">
-        <v>0.0163109421600987</v>
+        <v>0.04043515379367795</v>
       </c>
       <c r="D21">
-        <v>0.0397426160305042</v>
+        <v>-0.01867561951722719</v>
       </c>
       <c r="E21">
-        <v>0.00262851996641387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04247833141060229</v>
+      </c>
+      <c r="F21">
+        <v>0.002963787437727989</v>
+      </c>
+      <c r="G21">
+        <v>-0.1301342570546577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006403239521920896</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002359226710519994</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002866975527764416</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0009325372115748014</v>
+      </c>
+      <c r="F22">
+        <v>0.0004211328871563559</v>
+      </c>
+      <c r="G22">
+        <v>-0.002093712684494031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006446742800389127</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002355556920595286</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.00028682515012596</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0009383352667627781</v>
+      </c>
+      <c r="F23">
+        <v>0.0004197190378474503</v>
+      </c>
+      <c r="G23">
+        <v>-0.002105253125057119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00440224403876702</v>
+        <v>-0.02847657475556864</v>
       </c>
       <c r="C24">
-        <v>-0.003561712378001358</v>
+        <v>0.05166005220662249</v>
       </c>
       <c r="D24">
-        <v>0.05191034659003678</v>
+        <v>-0.00707770256225685</v>
       </c>
       <c r="E24">
-        <v>0.01131280981466668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005502037714169358</v>
+      </c>
+      <c r="F24">
+        <v>0.0135490141267156</v>
+      </c>
+      <c r="G24">
+        <v>-0.08563378842712674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01280913319724777</v>
+        <v>-0.0432163408650811</v>
       </c>
       <c r="C25">
-        <v>0.01390417215089736</v>
+        <v>0.05947070893330378</v>
       </c>
       <c r="D25">
-        <v>0.06040789852098034</v>
+        <v>-0.01108816878961461</v>
       </c>
       <c r="E25">
-        <v>0.01386243720931974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.00151758544731467</v>
+      </c>
+      <c r="F25">
+        <v>0.00736889254564123</v>
+      </c>
+      <c r="G25">
+        <v>-0.09571584837599721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02299740592917262</v>
+        <v>-0.01388762925959557</v>
       </c>
       <c r="C26">
-        <v>0.003759401276062502</v>
+        <v>0.01205978955326178</v>
       </c>
       <c r="D26">
-        <v>0.00429890162087009</v>
+        <v>-0.02410286767732671</v>
       </c>
       <c r="E26">
-        <v>0.00820928496602971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007102826014313298</v>
+      </c>
+      <c r="F26">
+        <v>-0.007362457860670158</v>
+      </c>
+      <c r="G26">
+        <v>-0.0790592713709202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05133938953320834</v>
+        <v>-0.1255307736865156</v>
       </c>
       <c r="C28">
-        <v>0.2396100880813009</v>
+        <v>-0.2370990807993655</v>
       </c>
       <c r="D28">
-        <v>-0.1327273565154059</v>
+        <v>0.005749183711993031</v>
       </c>
       <c r="E28">
-        <v>0.006643831382133924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006419954480043913</v>
+      </c>
+      <c r="F28">
+        <v>-0.01421865213172551</v>
+      </c>
+      <c r="G28">
+        <v>-0.05627228848251729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009638410902178063</v>
+        <v>-0.00959120741621418</v>
       </c>
       <c r="C29">
-        <v>0.01750442668623811</v>
+        <v>0.02323688787796949</v>
       </c>
       <c r="D29">
-        <v>0.02077445353255437</v>
+        <v>-0.008933436569584247</v>
       </c>
       <c r="E29">
-        <v>0.001372035739524433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001466531372510384</v>
+      </c>
+      <c r="F29">
+        <v>-0.01745279397502722</v>
+      </c>
+      <c r="G29">
+        <v>-0.09181418347274796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02451470245738119</v>
+        <v>-0.04154992182678577</v>
       </c>
       <c r="C30">
-        <v>-0.001837673716835593</v>
+        <v>0.07007576467135215</v>
       </c>
       <c r="D30">
-        <v>0.09993757664018781</v>
+        <v>-0.02870979372384771</v>
       </c>
       <c r="E30">
-        <v>-0.03143349522059695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05231114271805293</v>
+      </c>
+      <c r="F30">
+        <v>0.04804002368663602</v>
+      </c>
+      <c r="G30">
+        <v>-0.104008382653835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01054900515735248</v>
+        <v>-0.05295782008054181</v>
       </c>
       <c r="C31">
-        <v>0.03373358237621602</v>
+        <v>0.03791709213135729</v>
       </c>
       <c r="D31">
-        <v>0.03675376994137931</v>
+        <v>-0.003837781559255689</v>
       </c>
       <c r="E31">
-        <v>0.005422239367383783</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.001289391373653726</v>
+      </c>
+      <c r="F31">
+        <v>-0.0393007424110151</v>
+      </c>
+      <c r="G31">
+        <v>-0.09251616692992712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005232112404561707</v>
+        <v>-0.001080118527185471</v>
       </c>
       <c r="C32">
-        <v>0.01659538607730217</v>
+        <v>0.02596280088624807</v>
       </c>
       <c r="D32">
-        <v>0.009225085891767803</v>
+        <v>0.003254516813271193</v>
       </c>
       <c r="E32">
-        <v>0.05318106501335061</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0203521190409858</v>
+      </c>
+      <c r="F32">
+        <v>0.04118446190717895</v>
+      </c>
+      <c r="G32">
+        <v>-0.09381685866356257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01488494848979411</v>
+        <v>-0.02798934964780254</v>
       </c>
       <c r="C33">
-        <v>0.021126401195141</v>
+        <v>0.05078924461161176</v>
       </c>
       <c r="D33">
-        <v>0.04407390203185973</v>
+        <v>-0.01571591868432528</v>
       </c>
       <c r="E33">
-        <v>-0.01826869709352575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03629357151267906</v>
+      </c>
+      <c r="F33">
+        <v>0.01787100142393373</v>
+      </c>
+      <c r="G33">
+        <v>-0.1433933210332187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003152994760551148</v>
+        <v>-0.04071524309624909</v>
       </c>
       <c r="C34">
-        <v>0.01669202184426893</v>
+        <v>0.06192284657364787</v>
       </c>
       <c r="D34">
-        <v>0.05950739661165713</v>
+        <v>0.004783772503707208</v>
       </c>
       <c r="E34">
-        <v>0.02187190322052933</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0005933441463481078</v>
+      </c>
+      <c r="F34">
+        <v>0.01997063034213148</v>
+      </c>
+      <c r="G34">
+        <v>-0.09243507686054504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01349309205910164</v>
+        <v>-0.0159991780797926</v>
       </c>
       <c r="C36">
-        <v>0.01618218814494538</v>
+        <v>0.00979521862799493</v>
       </c>
       <c r="D36">
-        <v>0.006505224559860855</v>
+        <v>-0.01234407967780191</v>
       </c>
       <c r="E36">
-        <v>0.006101109932128508</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004572294997120844</v>
+      </c>
+      <c r="F36">
+        <v>-0.006674751965372147</v>
+      </c>
+      <c r="G36">
+        <v>-0.08559908519003658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001359039357723634</v>
+        <v>-0.03216433584805618</v>
       </c>
       <c r="C38">
-        <v>0.03350587834844723</v>
+        <v>0.03183459819556811</v>
       </c>
       <c r="D38">
-        <v>0.04884538106801493</v>
+        <v>0.007520633493222317</v>
       </c>
       <c r="E38">
-        <v>0.01186553302371446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002708412379892357</v>
+      </c>
+      <c r="F38">
+        <v>-0.018816643880106</v>
+      </c>
+      <c r="G38">
+        <v>-0.08098647165894485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004417400155328618</v>
+        <v>-0.03658014624873171</v>
       </c>
       <c r="C39">
-        <v>-0.022607654126359</v>
+        <v>0.08203579568038083</v>
       </c>
       <c r="D39">
-        <v>0.1053446450556831</v>
+        <v>-0.01143570261199308</v>
       </c>
       <c r="E39">
-        <v>-0.005478907499465753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0215233335160604</v>
+      </c>
+      <c r="F39">
+        <v>0.02456536362781392</v>
+      </c>
+      <c r="G39">
+        <v>-0.08393755880893661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01272225743523958</v>
+        <v>-0.01516807614924436</v>
       </c>
       <c r="C40">
-        <v>0.01258039850288149</v>
+        <v>0.04324772020782741</v>
       </c>
       <c r="D40">
-        <v>0.04212895851932022</v>
+        <v>-0.01480472986999551</v>
       </c>
       <c r="E40">
-        <v>0.01549133438476159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02023400165422702</v>
+      </c>
+      <c r="F40">
+        <v>-0.01587316479888888</v>
+      </c>
+      <c r="G40">
+        <v>-0.122098101818056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.00693490181211641</v>
+        <v>-0.02022360270241236</v>
       </c>
       <c r="C41">
-        <v>0.02051326442350267</v>
+        <v>0.00220749769701626</v>
       </c>
       <c r="D41">
-        <v>-0.0114478762105665</v>
+        <v>-0.004299721086812758</v>
       </c>
       <c r="E41">
-        <v>0.007562519127300354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002715759812525034</v>
+      </c>
+      <c r="F41">
+        <v>-0.01340359314821601</v>
+      </c>
+      <c r="G41">
+        <v>-0.0731789265783428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09098523097521619</v>
+        <v>-0.01043170435526402</v>
       </c>
       <c r="C42">
-        <v>-0.02386693596405451</v>
+        <v>0.03182231992293128</v>
       </c>
       <c r="D42">
-        <v>0.1599811136816086</v>
+        <v>-0.09016572330652894</v>
       </c>
       <c r="E42">
-        <v>-0.3792177789730385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01812054811764285</v>
+      </c>
+      <c r="F42">
+        <v>-0.0438407084376092</v>
+      </c>
+      <c r="G42">
+        <v>0.1254589102757795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008628802253445552</v>
+        <v>-0.03413541499309593</v>
       </c>
       <c r="C43">
-        <v>0.0265232606606459</v>
+        <v>0.01782423579056016</v>
       </c>
       <c r="D43">
-        <v>-0.007316780354937597</v>
+        <v>-0.00601031519499438</v>
       </c>
       <c r="E43">
-        <v>0.009418425536523403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01667950889043585</v>
+      </c>
+      <c r="F43">
+        <v>-0.003087136770345204</v>
+      </c>
+      <c r="G43">
+        <v>-0.1076085784469895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00367255993373961</v>
+        <v>-0.0125708827919922</v>
       </c>
       <c r="C44">
-        <v>0.004384396473618058</v>
+        <v>0.05981486442939581</v>
       </c>
       <c r="D44">
-        <v>0.05617580289614553</v>
+        <v>-0.006784165830394809</v>
       </c>
       <c r="E44">
-        <v>0.01581778576231091</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01831928104110944</v>
+      </c>
+      <c r="F44">
+        <v>-0.008454460043041052</v>
+      </c>
+      <c r="G44">
+        <v>-0.102041478815132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01153288545724282</v>
+        <v>-0.008173772124723009</v>
       </c>
       <c r="C46">
-        <v>0.01080148733549055</v>
+        <v>0.01803114770115526</v>
       </c>
       <c r="D46">
-        <v>0.007074700714930248</v>
+        <v>-0.01260407495804347</v>
       </c>
       <c r="E46">
-        <v>-0.005716876597179042</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001481712565312226</v>
+      </c>
+      <c r="F46">
+        <v>-0.0166588573216684</v>
+      </c>
+      <c r="G46">
+        <v>-0.09563791080229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.005298811054495733</v>
+        <v>-0.07741323616420402</v>
       </c>
       <c r="C47">
-        <v>0.04283249305062366</v>
+        <v>0.06677589419750411</v>
       </c>
       <c r="D47">
-        <v>0.07338669902178604</v>
+        <v>0.00508706168852446</v>
       </c>
       <c r="E47">
-        <v>0.01234634079411489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00623898258185082</v>
+      </c>
+      <c r="F47">
+        <v>-0.05486267013790386</v>
+      </c>
+      <c r="G47">
+        <v>-0.08200255397421286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004638723041610259</v>
+        <v>-0.01943927250200375</v>
       </c>
       <c r="C48">
-        <v>0.02032950990314346</v>
+        <v>0.01291968389939638</v>
       </c>
       <c r="D48">
-        <v>0.01895651462628337</v>
+        <v>-0.001973040790386655</v>
       </c>
       <c r="E48">
-        <v>0.0006790545118273736</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002227968786422921</v>
+      </c>
+      <c r="F48">
+        <v>-0.01906986467875597</v>
+      </c>
+      <c r="G48">
+        <v>-0.08800270559004642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007653039025932194</v>
+        <v>-0.07478412740666902</v>
       </c>
       <c r="C50">
-        <v>0.0457097658428573</v>
+        <v>0.07196397896744065</v>
       </c>
       <c r="D50">
-        <v>0.07104488163149489</v>
+        <v>0.002403982872505699</v>
       </c>
       <c r="E50">
-        <v>0.03036930295404543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.006232048654283962</v>
+      </c>
+      <c r="F50">
+        <v>-0.05536493045007353</v>
+      </c>
+      <c r="G50">
+        <v>-0.09360351504996577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008449016018178004</v>
+        <v>-0.01441426797547161</v>
       </c>
       <c r="C51">
-        <v>0.01468798739420404</v>
+        <v>0.03739668009659763</v>
       </c>
       <c r="D51">
-        <v>0.02236757244072904</v>
+        <v>-0.01042130324738224</v>
       </c>
       <c r="E51">
-        <v>0.01161260741802237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01855536499327679</v>
+      </c>
+      <c r="F51">
+        <v>0.02402051883011304</v>
+      </c>
+      <c r="G51">
+        <v>-0.1183705476156468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.009165827167744101</v>
+        <v>-0.08165771629330988</v>
       </c>
       <c r="C53">
-        <v>0.04967529607677178</v>
+        <v>0.08559052660821871</v>
       </c>
       <c r="D53">
-        <v>0.1284561175075722</v>
+        <v>0.003505660501358216</v>
       </c>
       <c r="E53">
-        <v>0.01927019125314882</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02391989610169465</v>
+      </c>
+      <c r="F53">
+        <v>-0.06676305295322442</v>
+      </c>
+      <c r="G53">
+        <v>-0.0805344828061401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.003208929850231922</v>
+        <v>-0.03102643107101636</v>
       </c>
       <c r="C54">
-        <v>0.03604134148833761</v>
+        <v>0.01694139429341115</v>
       </c>
       <c r="D54">
-        <v>0.003030262161702493</v>
+        <v>0.001498911919538486</v>
       </c>
       <c r="E54">
-        <v>-0.008051390592671783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01283120981165498</v>
+      </c>
+      <c r="F54">
+        <v>-0.003017998304130928</v>
+      </c>
+      <c r="G54">
+        <v>-0.09730799770431905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004738901870511412</v>
+        <v>-0.07204301318874244</v>
       </c>
       <c r="C55">
-        <v>0.03312186485608201</v>
+        <v>0.06941419379040145</v>
       </c>
       <c r="D55">
-        <v>0.105957988850086</v>
+        <v>0.005055790279813997</v>
       </c>
       <c r="E55">
-        <v>0.007728190753589867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0213525451096549</v>
+      </c>
+      <c r="F55">
+        <v>-0.06321124184334644</v>
+      </c>
+      <c r="G55">
+        <v>-0.05845169246699242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.008575820204499244</v>
+        <v>-0.1378328094579635</v>
       </c>
       <c r="C56">
-        <v>0.07249560681915014</v>
+        <v>0.1083866926251472</v>
       </c>
       <c r="D56">
-        <v>0.1592327888738898</v>
+        <v>0.01268516425683257</v>
       </c>
       <c r="E56">
-        <v>0.0208547136716306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02992433096980307</v>
+      </c>
+      <c r="F56">
+        <v>-0.08240521875487776</v>
+      </c>
+      <c r="G56">
+        <v>-0.03069490673123763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02510147498062585</v>
+        <v>-0.006691364338744486</v>
       </c>
       <c r="C57">
-        <v>0.00976716846127835</v>
+        <v>0.008565492686228658</v>
       </c>
       <c r="D57">
-        <v>0.04253260409254845</v>
+        <v>-0.02344251082206902</v>
       </c>
       <c r="E57">
-        <v>-0.02572673982577935</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02556925897455939</v>
+      </c>
+      <c r="F57">
+        <v>0.01068859943144499</v>
+      </c>
+      <c r="G57">
+        <v>-0.02926952956082082</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01367131035876395</v>
+        <v>-0.05454318128638416</v>
       </c>
       <c r="C58">
-        <v>0.06183204278839699</v>
+        <v>0.05228869818704326</v>
       </c>
       <c r="D58">
-        <v>0.1424331703483682</v>
+        <v>-0.02306675424092861</v>
       </c>
       <c r="E58">
-        <v>-0.7029057054276647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9383990608741368</v>
+      </c>
+      <c r="F58">
+        <v>-0.2147357211816413</v>
+      </c>
+      <c r="G58">
+        <v>0.1542692910579301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05189954080813459</v>
+        <v>-0.1602853005176965</v>
       </c>
       <c r="C59">
-        <v>0.2678240514821871</v>
+        <v>-0.20348375242921</v>
       </c>
       <c r="D59">
-        <v>-0.1204474614904984</v>
+        <v>0.01126067249909251</v>
       </c>
       <c r="E59">
-        <v>0.02300820958214706</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01769279612177754</v>
+      </c>
+      <c r="F59">
+        <v>0.002919306710804537</v>
+      </c>
+      <c r="G59">
+        <v>-0.0428108268293475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04957590527078731</v>
+        <v>-0.2869475248002223</v>
       </c>
       <c r="C60">
-        <v>0.1618645806250031</v>
+        <v>0.1065613969028093</v>
       </c>
       <c r="D60">
-        <v>0.125980996717796</v>
+        <v>-0.01168044418816559</v>
       </c>
       <c r="E60">
-        <v>0.06397968898151336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01266909800572121</v>
+      </c>
+      <c r="F60">
+        <v>0.3452252989780359</v>
+      </c>
+      <c r="G60">
+        <v>0.146634352758942</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003670670176375361</v>
+        <v>-0.03811155525126641</v>
       </c>
       <c r="C61">
-        <v>0.003783152013448418</v>
+        <v>0.06738348265983835</v>
       </c>
       <c r="D61">
-        <v>0.07654772342062773</v>
+        <v>-0.005187366772926112</v>
       </c>
       <c r="E61">
-        <v>0.01170857724462209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01375459846169592</v>
+      </c>
+      <c r="F61">
+        <v>0.01580593650531452</v>
+      </c>
+      <c r="G61">
+        <v>-0.08836975660836666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008811042836212091</v>
+        <v>-0.01503282236916365</v>
       </c>
       <c r="C63">
-        <v>0.007690500539593918</v>
+        <v>0.03058332774262781</v>
       </c>
       <c r="D63">
-        <v>0.02786873174841928</v>
+        <v>-0.008595019174569726</v>
       </c>
       <c r="E63">
-        <v>0.01797413150218802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001913405966622918</v>
+      </c>
+      <c r="F63">
+        <v>-0.01587657786166044</v>
+      </c>
+      <c r="G63">
+        <v>-0.09128098488003317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01014579069295629</v>
+        <v>-0.04769074816421105</v>
       </c>
       <c r="C64">
-        <v>0.02765288272685929</v>
+        <v>0.04727433093536017</v>
       </c>
       <c r="D64">
-        <v>0.06127224178690005</v>
+        <v>-0.006054685833763242</v>
       </c>
       <c r="E64">
-        <v>0.006016171086097397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0003006914655734476</v>
+      </c>
+      <c r="F64">
+        <v>0.006448480423808215</v>
+      </c>
+      <c r="G64">
+        <v>-0.08485144890042234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01731676186461042</v>
+        <v>-0.07485344090943005</v>
       </c>
       <c r="C65">
-        <v>-0.0007182182122292066</v>
+        <v>0.06017285449516831</v>
       </c>
       <c r="D65">
-        <v>0.1050037256561774</v>
+        <v>-0.01647600399236079</v>
       </c>
       <c r="E65">
-        <v>0.02241592630576227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03215247107351905</v>
+      </c>
+      <c r="F65">
+        <v>0.03168711906935628</v>
+      </c>
+      <c r="G65">
+        <v>-0.03216185296073023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00504307502484292</v>
+        <v>-0.05178927324523345</v>
       </c>
       <c r="C66">
-        <v>-0.01689186832082374</v>
+        <v>0.1099326988016049</v>
       </c>
       <c r="D66">
-        <v>0.1386940842946611</v>
+        <v>-0.01141383093343508</v>
       </c>
       <c r="E66">
-        <v>0.001348840724522306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03048003409726853</v>
+      </c>
+      <c r="F66">
+        <v>0.03646992702503658</v>
+      </c>
+      <c r="G66">
+        <v>-0.1000454651694817</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.005840194437724955</v>
+        <v>-0.05526810092794709</v>
       </c>
       <c r="C67">
-        <v>0.05368905965609402</v>
+        <v>0.0351859434822023</v>
       </c>
       <c r="D67">
-        <v>0.06332964920514951</v>
+        <v>0.005926915380227683</v>
       </c>
       <c r="E67">
-        <v>0.01413148843304802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003806692468384438</v>
+      </c>
+      <c r="F67">
+        <v>-0.01773123160602874</v>
+      </c>
+      <c r="G67">
+        <v>-0.07288118675667953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06610376407936959</v>
+        <v>-0.1534946695782612</v>
       </c>
       <c r="C68">
-        <v>0.2405988440609483</v>
+        <v>-0.269791617698228</v>
       </c>
       <c r="D68">
-        <v>-0.1628259854869519</v>
+        <v>-0.006245143177228548</v>
       </c>
       <c r="E68">
-        <v>-0.02181943856737609</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01235450064852178</v>
+      </c>
+      <c r="F68">
+        <v>-0.03324763448977616</v>
+      </c>
+      <c r="G68">
+        <v>-0.03173958966705904</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001033575923232214</v>
+        <v>-0.08154959558542089</v>
       </c>
       <c r="C69">
-        <v>0.03755282007231735</v>
+        <v>0.07019625909207901</v>
       </c>
       <c r="D69">
-        <v>0.07724996041304619</v>
+        <v>0.008893058632698595</v>
       </c>
       <c r="E69">
-        <v>0.02409043383484973</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02210185495914447</v>
+      </c>
+      <c r="F69">
+        <v>-0.03716027239207174</v>
+      </c>
+      <c r="G69">
+        <v>-0.09167098187062842</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0503593061402836</v>
+        <v>-0.1400620255840289</v>
       </c>
       <c r="C71">
-        <v>0.2124127426924902</v>
+        <v>-0.2278184140394667</v>
       </c>
       <c r="D71">
-        <v>-0.1122512070827784</v>
+        <v>0.002376887074698248</v>
       </c>
       <c r="E71">
-        <v>-0.01745772282901256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03313953250275724</v>
+      </c>
+      <c r="F71">
+        <v>-0.0177446340917946</v>
+      </c>
+      <c r="G71">
+        <v>-0.06661410043451979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00046033096726193</v>
+        <v>-0.08504502342196013</v>
       </c>
       <c r="C72">
-        <v>0.03227248394828865</v>
+        <v>0.07285806809704262</v>
       </c>
       <c r="D72">
-        <v>0.106801376661324</v>
+        <v>0.008424165460021931</v>
       </c>
       <c r="E72">
-        <v>0.03342644122477112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005397533225219017</v>
+      </c>
+      <c r="F72">
+        <v>0.03829304015776681</v>
+      </c>
+      <c r="G72">
+        <v>-0.07787759626040421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06369890846646571</v>
+        <v>-0.3762700900695392</v>
       </c>
       <c r="C73">
-        <v>0.1855382146062347</v>
+        <v>0.1161148218762617</v>
       </c>
       <c r="D73">
-        <v>0.2371530273563555</v>
+        <v>-0.01975051710099425</v>
       </c>
       <c r="E73">
-        <v>0.03557684560838228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0550141420526314</v>
+      </c>
+      <c r="F73">
+        <v>0.5736500981733016</v>
+      </c>
+      <c r="G73">
+        <v>0.2644685922210201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.006205000980512582</v>
+        <v>-0.1051669902948008</v>
       </c>
       <c r="C74">
-        <v>0.06312956691324428</v>
+        <v>0.1092181729692285</v>
       </c>
       <c r="D74">
-        <v>0.1719631643876126</v>
+        <v>0.009413738228677148</v>
       </c>
       <c r="E74">
-        <v>0.01374952706298781</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.005502142397050289</v>
+      </c>
+      <c r="F74">
+        <v>-0.06783578969258493</v>
+      </c>
+      <c r="G74">
+        <v>-0.07355394257516602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01659905643171174</v>
+        <v>-0.2488915473848802</v>
       </c>
       <c r="C75">
-        <v>0.1480180216696417</v>
+        <v>0.1515556435807079</v>
       </c>
       <c r="D75">
-        <v>0.2929561703016918</v>
+        <v>0.0308209609847168</v>
       </c>
       <c r="E75">
-        <v>0.01466675372155888</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05386452263346863</v>
+      </c>
+      <c r="F75">
+        <v>-0.1787558744770088</v>
+      </c>
+      <c r="G75">
+        <v>0.04128192794499268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00457534583170801</v>
+        <v>-0.1201479720959665</v>
       </c>
       <c r="C76">
-        <v>0.09222120558609888</v>
+        <v>0.1103384818930101</v>
       </c>
       <c r="D76">
-        <v>0.2200446102257427</v>
+        <v>0.01869956878091882</v>
       </c>
       <c r="E76">
-        <v>0.04995734387656204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02771723671419645</v>
+      </c>
+      <c r="F76">
+        <v>-0.1122249964201352</v>
+      </c>
+      <c r="G76">
+        <v>-0.05274062960440556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01544374276352251</v>
+        <v>-0.06786553788335366</v>
       </c>
       <c r="C77">
-        <v>0.02243657527650742</v>
+        <v>0.06081328413042607</v>
       </c>
       <c r="D77">
-        <v>0.06608671111500439</v>
+        <v>-0.01132276880861276</v>
       </c>
       <c r="E77">
-        <v>-0.005699464889284384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04070982997119461</v>
+      </c>
+      <c r="F77">
+        <v>0.01395985536531877</v>
+      </c>
+      <c r="G77">
+        <v>-0.05958524788816928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006014521772814619</v>
+        <v>-0.04245751311031526</v>
       </c>
       <c r="C78">
-        <v>0.0135903682238412</v>
+        <v>0.05170437509611969</v>
       </c>
       <c r="D78">
-        <v>0.05622768382759677</v>
+        <v>-0.005292540387452105</v>
       </c>
       <c r="E78">
-        <v>0.001947545373923868</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02125730918361271</v>
+      </c>
+      <c r="F78">
+        <v>0.03711802047815028</v>
+      </c>
+      <c r="G78">
+        <v>-0.08630962940448227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01180521678898175</v>
+        <v>-0.04379672111356039</v>
       </c>
       <c r="C80">
-        <v>0.02152006958479676</v>
+        <v>0.07480752258116681</v>
       </c>
       <c r="D80">
-        <v>0.1586739521249103</v>
+        <v>-0.01135754225977866</v>
       </c>
       <c r="E80">
-        <v>0.5545902645998736</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03191554024436644</v>
+      </c>
+      <c r="F80">
+        <v>0.027826646952959</v>
+      </c>
+      <c r="G80">
+        <v>-0.3509143132278038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01160254437557882</v>
+        <v>-0.1393580073193578</v>
       </c>
       <c r="C81">
-        <v>0.09320542731507847</v>
+        <v>0.09611147070895515</v>
       </c>
       <c r="D81">
-        <v>0.1754826991103694</v>
+        <v>0.01525992539937888</v>
       </c>
       <c r="E81">
-        <v>0.03099474263315976</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03260190252237091</v>
+      </c>
+      <c r="F81">
+        <v>-0.1331719582141164</v>
+      </c>
+      <c r="G81">
+        <v>-0.02265112026260644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.127987642585654</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0734357582664481</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00817353048502106</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.089652256985708</v>
+      </c>
+      <c r="F82">
+        <v>-0.04422755172262802</v>
+      </c>
+      <c r="G82">
+        <v>-0.05747959100011277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008368739481513156</v>
+        <v>-0.03647637495723373</v>
       </c>
       <c r="C83">
-        <v>0.02170270203881452</v>
+        <v>0.02990442823953047</v>
       </c>
       <c r="D83">
-        <v>0.03635348408231301</v>
+        <v>-0.005664955861090375</v>
       </c>
       <c r="E83">
-        <v>-0.007460130233954917</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02775076098378466</v>
+      </c>
+      <c r="F83">
+        <v>0.03267895715256996</v>
+      </c>
+      <c r="G83">
+        <v>-0.06044171708803538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02313872393348173</v>
+        <v>-0.2141099877477359</v>
       </c>
       <c r="C85">
-        <v>0.1162187794270016</v>
+        <v>0.1452156480031616</v>
       </c>
       <c r="D85">
-        <v>0.2636345205132499</v>
+        <v>0.01804495094173717</v>
       </c>
       <c r="E85">
-        <v>0.02762420899549594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09323513610088956</v>
+      </c>
+      <c r="F85">
+        <v>-0.1379528070488488</v>
+      </c>
+      <c r="G85">
+        <v>0.09811625976693827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01086430282936097</v>
+        <v>-0.01436167804666864</v>
       </c>
       <c r="C86">
-        <v>0.02871924864281348</v>
+        <v>0.0302241276790065</v>
       </c>
       <c r="D86">
-        <v>0.06557934288353374</v>
+        <v>-0.01231366747938379</v>
       </c>
       <c r="E86">
-        <v>-0.01853764132584326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04835322736298568</v>
+      </c>
+      <c r="F86">
+        <v>0.03268294727656137</v>
+      </c>
+      <c r="G86">
+        <v>-0.1800476220511406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008105914720581637</v>
+        <v>-0.02253669721913619</v>
       </c>
       <c r="C87">
-        <v>0.0001231555155144579</v>
+        <v>0.02382446160758133</v>
       </c>
       <c r="D87">
-        <v>0.05355531163996914</v>
+        <v>-0.01177013354414913</v>
       </c>
       <c r="E87">
-        <v>-0.01690183192226705</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08588078645836539</v>
+      </c>
+      <c r="F87">
+        <v>0.01736953043099398</v>
+      </c>
+      <c r="G87">
+        <v>-0.1135253549635037</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02905366048562344</v>
+        <v>-0.09237445379584161</v>
       </c>
       <c r="C88">
-        <v>0.0292763729123313</v>
+        <v>0.067522781325739</v>
       </c>
       <c r="D88">
-        <v>0.05778666132059852</v>
+        <v>-0.0225971675114622</v>
       </c>
       <c r="E88">
-        <v>0.002032654010117542</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006996263896582149</v>
+      </c>
+      <c r="F88">
+        <v>-0.01681311634155078</v>
+      </c>
+      <c r="G88">
+        <v>-0.08051103386963256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09579092094250651</v>
+        <v>-0.2328460409879776</v>
       </c>
       <c r="C89">
-        <v>0.392947850410895</v>
+        <v>-0.3680928688154133</v>
       </c>
       <c r="D89">
-        <v>-0.2067345435783793</v>
+        <v>-0.0001212785350074994</v>
       </c>
       <c r="E89">
-        <v>0.03307564416504901</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01343347036203995</v>
+      </c>
+      <c r="F89">
+        <v>-0.02659879091840741</v>
+      </c>
+      <c r="G89">
+        <v>-0.07010490181995249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07361101477331143</v>
+        <v>-0.2079800552905729</v>
       </c>
       <c r="C90">
-        <v>0.3082687296895293</v>
+        <v>-0.3185327235047035</v>
       </c>
       <c r="D90">
-        <v>-0.1861211142535647</v>
+        <v>0.004295413774190179</v>
       </c>
       <c r="E90">
-        <v>-0.009348282860779718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.002515823070155585</v>
+      </c>
+      <c r="F90">
+        <v>-0.05471192696988766</v>
+      </c>
+      <c r="G90">
+        <v>-0.03663558811558219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01310320708743351</v>
+        <v>-0.1870738960968993</v>
       </c>
       <c r="C91">
-        <v>0.1306513359687677</v>
+        <v>0.1388756780378605</v>
       </c>
       <c r="D91">
-        <v>0.2151955560717427</v>
+        <v>0.02240280862264654</v>
       </c>
       <c r="E91">
-        <v>0.02725501773328379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05794208111425091</v>
+      </c>
+      <c r="F91">
+        <v>-0.1474649643432067</v>
+      </c>
+      <c r="G91">
+        <v>-0.01762266016476209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04192103953824464</v>
+        <v>-0.2001808185061338</v>
       </c>
       <c r="C92">
-        <v>0.3208755148212916</v>
+        <v>-0.2554864068695888</v>
       </c>
       <c r="D92">
-        <v>-0.0825045528980024</v>
+        <v>0.03776114231654577</v>
       </c>
       <c r="E92">
-        <v>-0.03790772830943516</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03964952248236747</v>
+      </c>
+      <c r="F92">
+        <v>-0.05532287947837705</v>
+      </c>
+      <c r="G92">
+        <v>-0.1315586062748431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07298187871258507</v>
+        <v>-0.232643673060788</v>
       </c>
       <c r="C93">
-        <v>0.3348383573310562</v>
+        <v>-0.3143967473247233</v>
       </c>
       <c r="D93">
-        <v>-0.1580215575714169</v>
+        <v>0.01107646426712133</v>
       </c>
       <c r="E93">
-        <v>-0.02087308164559732</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009584218492027643</v>
+      </c>
+      <c r="F93">
+        <v>-0.04043665398987739</v>
+      </c>
+      <c r="G93">
+        <v>-0.04798981033779507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.04210786043509067</v>
+        <v>-0.3158201791949725</v>
       </c>
       <c r="C94">
-        <v>0.1659796731502631</v>
+        <v>0.1753193194180741</v>
       </c>
       <c r="D94">
-        <v>0.2605138230406644</v>
+        <v>0.01720656014460601</v>
       </c>
       <c r="E94">
-        <v>0.04019499707318084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1694956001622993</v>
+      </c>
+      <c r="F94">
+        <v>-0.4841278427990923</v>
+      </c>
+      <c r="G94">
+        <v>0.3799258473712275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002675127316131285</v>
+        <v>-0.1007024579158824</v>
       </c>
       <c r="C95">
-        <v>0.03398982737829382</v>
+        <v>0.08612604069170354</v>
       </c>
       <c r="D95">
-        <v>0.115234786585988</v>
+        <v>0.01063619765739786</v>
       </c>
       <c r="E95">
-        <v>-0.1342707910849801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0660224604683906</v>
+      </c>
+      <c r="F95">
+        <v>0.2103149126072634</v>
+      </c>
+      <c r="G95">
+        <v>0.1012155258271934</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.0207500501149132</v>
+        <v>-0.1977566825457565</v>
       </c>
       <c r="C98">
-        <v>0.1556689566284199</v>
+        <v>0.04567059907889145</v>
       </c>
       <c r="D98">
-        <v>0.1415872705228485</v>
+        <v>0.01369544718922504</v>
       </c>
       <c r="E98">
-        <v>-0.02013934528314435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06150018925043614</v>
+      </c>
+      <c r="F98">
+        <v>0.2399529525124195</v>
+      </c>
+      <c r="G98">
+        <v>0.008128935118403569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009442059649330096</v>
+        <v>-0.009428732785807581</v>
       </c>
       <c r="C101">
-        <v>0.01731352839911644</v>
+        <v>0.02320062236046791</v>
       </c>
       <c r="D101">
-        <v>0.02072890314434517</v>
+        <v>-0.008761712189238671</v>
       </c>
       <c r="E101">
-        <v>0.00141251167545716</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001251814545801043</v>
+      </c>
+      <c r="F101">
+        <v>-0.01833950723081346</v>
+      </c>
+      <c r="G101">
+        <v>-0.09088111343374795</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01938349088404972</v>
+        <v>-0.1172146693261685</v>
       </c>
       <c r="C102">
-        <v>0.05878115937287577</v>
+        <v>0.08406420315377366</v>
       </c>
       <c r="D102">
-        <v>0.1259888998862711</v>
+        <v>-0.0008147043419756986</v>
       </c>
       <c r="E102">
-        <v>0.01579782549038589</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03364067038631254</v>
+      </c>
+      <c r="F102">
+        <v>-0.04128870404337899</v>
+      </c>
+      <c r="G102">
+        <v>-0.00674654075666151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>1.518626194373493e-06</v>
+        <v>4.574176623421258e-05</v>
       </c>
       <c r="C103">
-        <v>-8.147758707518796e-05</v>
+        <v>-6.371526107758155e-05</v>
       </c>
       <c r="D103">
-        <v>-0.0003292693690306588</v>
+        <v>-1.255202104425536e-05</v>
       </c>
       <c r="E103">
-        <v>-0.0001466889507109822</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-2.478260191234554e-05</v>
+      </c>
+      <c r="F103">
+        <v>-5.984566525752322e-05</v>
+      </c>
+      <c r="G103">
+        <v>-9.968185748868995e-05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9682624196194131</v>
+        <v>-0.02113476022004202</v>
       </c>
       <c r="C104">
-        <v>-0.2102075727586183</v>
+        <v>-0.02933872012784351</v>
       </c>
       <c r="D104">
-        <v>-0.02433796320994583</v>
+        <v>-0.9878464239530331</v>
       </c>
       <c r="E104">
-        <v>0.03066614875570271</v>
+        <v>0.04547993058337916</v>
+      </c>
+      <c r="F104">
+        <v>-0.03603072455557653</v>
+      </c>
+      <c r="G104">
+        <v>0.03254956123245872</v>
       </c>
     </row>
   </sheetData>
